--- a/biology/Botanique/Excoecaria_agallocha/Excoecaria_agallocha.xlsx
+++ b/biology/Botanique/Excoecaria_agallocha/Excoecaria_agallocha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre aveuglant, Géor, Palétuvier argent, Palétuvier aveuglant
 Excoecaria agallocha, l'Arbre aveuglant, Géor, Palétuvier argent ou Palétuvier aveuglant, est une espèce de plantes à fleurs de la famille des Euphorbiaceae et du genre Excoecaria. C'est un arbre ou un arbuste tropical , originaire d'Asie du Sud et du Sud-Est, et d'Océanie. Il pousse principalement sur les littoraux où il peut former des mangroves. 
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de l'espèce recouvre l'Asie du Sud et du Sud-Est, ainsi que l'Océanie. L'espèce est présente au nord jusqu'en Chine et au sud jusqu'en Australie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de l'espèce recouvre l'Asie du Sud et du Sud-Est, ainsi que l'Océanie. L'espèce est présente au nord jusqu'en Chine et au sud jusqu'en Australie,.
 </t>
         </is>
       </c>
@@ -545,10 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbuste ou petit arbre dioïque pouvant atteindre de 8 à 10 m[3], voire 15 m[4] de haut. Ses racines câblées sont étendues et il possède plusieurs tiges[5]. Elles produisent un latex très irritant, dangereux pour les yeux. Les feuilles sont alternes, pétiolées, elliptiques ou ovées, longues de 4 à 10 cm et larges de 2 à 5 cm, obtuses ou émarginées au sommet, obtuses ou arrondies à la base ; la marge est entière ou un peu crénelée ; il y a entre neuf et douze paires de nervures secondaires[3]. Le feuillage peut être caduque dans les zones plus fraîches/sèches[5].
-Appareil reproducteur
-Les fleurs sont jaunes ou verdâtres, groupées sur des inflorescences en épis longs de 3,5 à 7 cm, axillaires, solitaires ou en fascicules. Les fruits sont des capsules profondément lobées, larges de 4 à 5 mm et longues de 8 mm, de couleur rouge violacé à maturité. En Nouvelle-Calédonie, la floraison et la fructification ont lieu surtout de décembre à février[3] ; en Chine, entre janvier et septembre[4].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste ou petit arbre dioïque pouvant atteindre de 8 à 10 m, voire 15 m de haut. Ses racines câblées sont étendues et il possède plusieurs tiges. Elles produisent un latex très irritant, dangereux pour les yeux. Les feuilles sont alternes, pétiolées, elliptiques ou ovées, longues de 4 à 10 cm et larges de 2 à 5 cm, obtuses ou émarginées au sommet, obtuses ou arrondies à la base ; la marge est entière ou un peu crénelée ; il y a entre neuf et douze paires de nervures secondaires. Le feuillage peut être caduque dans les zones plus fraîches/sèches.
 </t>
         </is>
       </c>
@@ -574,12 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Nouvelle-Calédonie, cet arbuste pousse sur le littoral, en arrière-plages et sur falaises soumises aux embruns, sur sol sablonneux, sur substrats divers, ou sur falaises calcaires[3]. En Chine, il pousse dans les forêts de mangrove et de marée, les zones saumâtres et les rizières ; du bord de mer jusqu'à 100 m d'altitude[4]. Hibiscus tiliaceus est son principal associé en Chine[5].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont jaunes ou verdâtres, groupées sur des inflorescences en épis longs de 3,5 à 7 cm, axillaires, solitaires ou en fascicules. Les fruits sont des capsules profondément lobées, larges de 4 à 5 mm et longues de 8 mm, de couleur rouge violacé à maturité. En Nouvelle-Calédonie, la floraison et la fructification ont lieu surtout de décembre à février ; en Chine, entre janvier et septembre.
 </t>
         </is>
       </c>
@@ -605,16 +628,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie, cet arbuste pousse sur le littoral, en arrière-plages et sur falaises soumises aux embruns, sur sol sablonneux, sur substrats divers, ou sur falaises calcaires. En Chine, il pousse dans les forêts de mangrove et de marée, les zones saumâtres et les rizières ; du bord de mer jusqu'à 100 m d'altitude. Hibiscus tiliaceus est son principal associé en Chine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Excoecaria_agallocha</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Excoecaria_agallocha</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite en premier par le naturaliste suédois Carl von Linné en 1759, qui la classe dans le genre Excoecaria, dont elle est l'espèce type, sous le nom binominal Excoecaria agallocha, dans son ouvrage Systema Naturae[6].
-Noms en français
-Ce taxon porte en français les noms vernaculaires ou normalisés « Arbre aveuglant »[7], « Géor »[7], « Palétuvier argent »[3], « Palétuvier aveuglant »[3].
-Synonymes
-Excoecaria agallocha a pour synonymes selon GBIF       (4 novembre 2021)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier par le naturaliste suédois Carl von Linné en 1759, qui la classe dans le genre Excoecaria, dont elle est l'espèce type, sous le nom binominal Excoecaria agallocha, dans son ouvrage Systema Naturae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Excoecaria_agallocha</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Excoecaria_agallocha</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Noms en français</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés « Arbre aveuglant », « Géor », « Palétuvier argent », « Palétuvier aveuglant ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Excoecaria_agallocha</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Excoecaria_agallocha</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excoecaria agallocha a pour synonymes selon GBIF       (4 novembre 2021) :
 Commia cochinchinensis Lour.
 Excaecaria agallocha var. genuina Müll.Arg.
 Excaecaria agallocha var. ovalis Müll.Arg.
@@ -635,40 +763,77 @@
 Excoecaria sphaerosperma F.Muell. ex Pax
 Stilingia agallocha (L.) Baill.
 Stillingia agallocha (L.) Baill.
-Sous-espèces
-Il existe deux sous-espèces selon le World Register of Marine Species                               (4 novembre 2021)[8], non reconnues par GBIF       (4 novembre 2021)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Excoecaria_agallocha</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Excoecaria_agallocha</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Il existe deux sous-espèces selon le World Register of Marine Species                               (4 novembre 2021), non reconnues par GBIF       (4 novembre 2021) :
 Excoecaria agallocha subsp. agallocha L.
 Excoecaria agallocha subsp. ovalis (Endl.) Mull.Arg.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Excoecaria_agallocha</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Excoecaria_agallocha</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Excoecaria_agallocha</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Excoecaria_agallocha</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est utilisée pour les meubles et les ornements. En Papouasie-Nouvelle-Guinée, elle est utilisée pour soulager la douleur des piqûres de poisson. Elle est également utilisée comme poison pour attraper les poissons[5]. L'espèce est parfois cultivée à des fins ornementales[4].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est utilisée pour les meubles et les ornements. En Papouasie-Nouvelle-Guinée, elle est utilisée pour soulager la douleur des piqûres de poisson. Elle est également utilisée comme poison pour attraper les poissons. L'espèce est parfois cultivée à des fins ornementales.
 </t>
         </is>
       </c>
